--- a/020_data/2022_PA_chicks.xlsx
+++ b/020_data/2022_PA_chicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/020_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2324D9-C973-A94E-831D-E078E0F57948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103ABA1-BB8A-F94B-964C-AE6FF26DD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="21540" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="329">
   <si>
     <t>Status</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>ave. age in days at banding</t>
-  </si>
-  <si>
-    <t>ave. fledge date</t>
   </si>
   <si>
     <t>date 1st observed as active</t>
@@ -1015,16 +1012,34 @@
     <t>female on eggs?, 5 young banded 5-14, 4 eggs again on 7-15 with female overhead, female on 5-day chicks 7-30-22, 4 more banded 8-13</t>
   </si>
   <si>
-    <t>nestbox_id</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t># young banded (s) mount</t>
-  </si>
-  <si>
-    <t># young banded (u) mount</t>
+    <t># young banded steel pole mount</t>
+  </si>
+  <si>
+    <t>young banded utility pole mount</t>
+  </si>
+  <si>
+    <t>fledge date</t>
+  </si>
+  <si>
+    <t>Burris house 2nd</t>
+  </si>
+  <si>
+    <t>Zook S 2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tormey N 2nd </t>
+  </si>
+  <si>
+    <t>Bee Tree 2nd</t>
+  </si>
+  <si>
+    <t>Everhart S 2nd</t>
+  </si>
+  <si>
+    <t>NESTBOX ID</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1134,13 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1150,25 +1159,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,12 +1494,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M497"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1509,28 +1520,28 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1539,10 +1550,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>109</v>
@@ -1552,37 +1563,41 @@
       <c r="A2" s="4">
         <v>2022</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="17">
         <v>44681</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="9">
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19">
         <v>44712</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2022</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="6">
         <v>44695</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1594,7 +1609,7 @@
       </c>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" s="18"/>
+      <c r="K3" s="13"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
@@ -1602,220 +1617,230 @@
       <c r="A4" s="4">
         <v>2022</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="17">
         <v>44680</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="9">
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19">
         <v>44702</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2022</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="17">
         <v>44680</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="9">
+      <c r="D5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
         <v>44736</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>289</v>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2022</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="17">
         <v>44680</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>290</v>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
         <v>44684</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="D7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
         <v>44729</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2022</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="17">
         <v>44684</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="9">
+      <c r="D8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19">
         <v>44722</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2022</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="17">
         <v>44785</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2022</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="17">
         <v>44681</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="G10" s="18"/>
+      <c r="H10" s="19">
         <v>44707</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2022</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="17">
         <v>44682</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="9">
+      <c r="F11" s="1"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19">
         <v>44733</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2022</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6">
         <v>44695</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12"/>
       <c r="F12">
@@ -1835,142 +1860,147 @@
       <c r="A13" s="4">
         <v>2022</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="17">
         <v>44684</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="D13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="9">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
         <v>44720</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2022</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="17">
         <v>44684</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="H14" s="9">
+      <c r="F14" s="1"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19">
         <v>44733</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2022</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="17">
         <v>44684</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="D15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19">
         <v>44729</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2022</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="17">
         <v>44683</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="D16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2022</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="17">
         <v>44683</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="H17" s="9">
+      <c r="F17" s="1"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19">
         <v>44732</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2022</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="6">
         <v>44757</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1990,121 +2020,122 @@
       <c r="A19" s="4">
         <v>2022</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="17">
         <v>44683</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="5">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="H19" s="9">
+      <c r="D19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19">
         <v>44719</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2022</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="17">
         <v>44683</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="9">
+      <c r="D20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19">
         <v>44717</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2022</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="17">
         <v>44683</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="9">
+      <c r="D21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19">
         <v>44734</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2022</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="17">
         <v>44683</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="5">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="9">
+      <c r="D22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19">
         <v>44731</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2022</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>44683</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -2112,23 +2143,23 @@
       <c r="H23" s="3">
         <v>44710</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2022</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>44682</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2136,25 +2167,25 @@
       <c r="H24" s="3">
         <v>44713</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2022</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>44680</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="16">
+        <v>215</v>
+      </c>
+      <c r="E25" s="1">
         <v>5</v>
       </c>
       <c r="H25" s="3">
@@ -2166,14 +2197,14 @@
       <c r="A26" s="4">
         <v>2022</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>44682</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -2187,14 +2218,14 @@
       <c r="A27" s="4">
         <v>2022</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>44682</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -2208,14 +2239,14 @@
       <c r="A28" s="4">
         <v>2022</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" s="6">
         <v>44758</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2228,14 +2259,14 @@
       <c r="A29" s="4">
         <v>2022</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>44681</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2247,14 +2278,14 @@
       <c r="A30" s="4">
         <v>2022</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>44680</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -2268,14 +2299,14 @@
       <c r="A31" s="4">
         <v>2022</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>44683</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -2289,14 +2320,14 @@
       <c r="A32" s="4">
         <v>2022</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>44683</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2308,14 +2339,14 @@
       <c r="A33" s="4">
         <v>2022</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>44683</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2327,14 +2358,14 @@
       <c r="A34" s="4">
         <v>2022</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="3">
         <v>44683</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2348,14 +2379,14 @@
       <c r="A35" s="4">
         <v>2022</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3">
         <v>44680</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -2369,14 +2400,14 @@
       <c r="A36" s="4">
         <v>2022</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="3">
         <v>44680</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -2390,14 +2421,14 @@
       <c r="A37" s="4">
         <v>2022</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3">
         <v>44681</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2412,14 +2443,14 @@
       <c r="A38" s="4">
         <v>2022</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="3">
         <v>44680</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2432,14 +2463,14 @@
       <c r="A39" s="4">
         <v>2022</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="3">
         <v>44683</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2454,14 +2485,14 @@
       <c r="A40" s="4">
         <v>2022</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="3">
         <v>44683</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2476,14 +2507,14 @@
       <c r="A41" s="4">
         <v>2022</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="3">
         <v>44683</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -2498,14 +2529,14 @@
       <c r="A42" s="4">
         <v>2022</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="3">
         <v>44680</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2520,14 +2551,14 @@
       <c r="A43" s="4">
         <v>2022</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>44680</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -2541,14 +2572,14 @@
       <c r="A44" s="4">
         <v>2022</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="3">
         <v>44680</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -2562,20 +2593,20 @@
       <c r="A45" s="4">
         <v>2022</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="3">
         <v>44680</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H45" s="3">
         <v>44716</v>
@@ -2586,14 +2617,14 @@
       <c r="A46" s="4">
         <v>2022</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="3">
         <v>44680</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -2607,14 +2638,14 @@
       <c r="A47" s="4">
         <v>2022</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3">
         <v>44680</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -2628,14 +2659,14 @@
       <c r="A48" s="4">
         <v>2022</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <v>44684</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -2649,14 +2680,14 @@
       <c r="A49" s="4">
         <v>2022</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="6">
         <v>44684</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -2670,14 +2701,14 @@
       <c r="A50" s="4">
         <v>2022</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <v>44684</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -2691,14 +2722,14 @@
       <c r="A51" s="4">
         <v>2022</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="6">
         <v>44684</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -2712,14 +2743,14 @@
       <c r="A52" s="4">
         <v>2022</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="6">
         <v>44682</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -2734,14 +2765,14 @@
       <c r="A53" s="4">
         <v>2022</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="6">
         <v>44682</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E53">
         <v>8</v>
@@ -2750,20 +2781,20 @@
         <v>44711</v>
       </c>
       <c r="I53" s="3"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2022</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="6">
         <v>44683</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -2778,14 +2809,14 @@
       <c r="A55" s="4">
         <v>2022</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="6">
         <v>44680</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -2800,14 +2831,14 @@
       <c r="A56" s="4">
         <v>2022</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="6">
         <v>44681</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -2822,14 +2853,14 @@
       <c r="A57" s="4">
         <v>2022</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="6">
         <v>44683</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -2844,14 +2875,14 @@
       <c r="A58" s="4">
         <v>2022</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="6">
         <v>44680</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -2864,14 +2895,14 @@
       <c r="A59" s="4">
         <v>2022</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="6">
         <v>44680</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -2886,14 +2917,14 @@
       <c r="A60" s="4">
         <v>2022</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="6">
         <v>44680</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -2908,14 +2939,14 @@
       <c r="A61" s="4">
         <v>2022</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="6">
         <v>44680</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -2930,14 +2961,14 @@
       <c r="A62" s="4">
         <v>2022</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="6">
         <v>44680</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -2951,14 +2982,14 @@
       <c r="A63" s="4">
         <v>2022</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="6">
         <v>44680</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F63">
         <v>5</v>
@@ -2972,14 +3003,14 @@
       <c r="A64" s="4">
         <v>2022</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="6">
         <v>44680</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -2994,14 +3025,14 @@
       <c r="A65" s="4">
         <v>2022</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="6">
         <v>44681</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3013,14 +3044,14 @@
       <c r="A66" s="4">
         <v>2022</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" s="6">
+        <v>44744</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C66" s="8">
-        <v>44744</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -3031,14 +3062,14 @@
       <c r="A67" s="4">
         <v>2022</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="6">
         <v>44684</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3046,20 +3077,20 @@
       <c r="H67" s="3">
         <v>44711</v>
       </c>
-      <c r="K67" s="18"/>
+      <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2022</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="6">
         <v>44684</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F68">
         <v>5</v>
@@ -3073,14 +3104,14 @@
       <c r="A69" s="4">
         <v>2022</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="6">
         <v>44683</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -3094,14 +3125,14 @@
       <c r="A70" s="4">
         <v>2022</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C70" s="8">
+      <c r="B70" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="6">
         <v>44732</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -3115,14 +3146,14 @@
       <c r="A71" s="4">
         <v>2022</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="6">
         <v>44682</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -3137,14 +3168,14 @@
       <c r="A72" s="4">
         <v>2022</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="8">
+      <c r="B72" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="6">
         <v>44697</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -3158,14 +3189,14 @@
       <c r="A73" s="4">
         <v>2022</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="6">
         <v>44684</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -3175,14 +3206,14 @@
       <c r="A74" s="4">
         <v>2022</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="6">
         <v>44684</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -3197,14 +3228,14 @@
       <c r="A75" s="4">
         <v>2022</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="6">
         <v>44682</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -3219,14 +3250,14 @@
       <c r="A76" s="4">
         <v>2022</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="6">
         <v>44680</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -3240,14 +3271,14 @@
       <c r="A77" s="4">
         <v>2022</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="8">
+      <c r="B77" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="6">
         <v>44683</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3261,14 +3292,14 @@
       <c r="A78" s="4">
         <v>2022</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="6">
         <v>44697</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -3282,14 +3313,14 @@
       <c r="A79" s="4">
         <v>2022</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="6">
         <v>44683</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F79">
         <v>4</v>
@@ -3303,14 +3334,14 @@
       <c r="A80" s="4">
         <v>2022</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="6">
         <v>44681</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -3324,14 +3355,14 @@
       <c r="A81" s="4">
         <v>2022</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="6">
         <v>44681</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F81">
         <v>5</v>
@@ -3345,14 +3376,14 @@
       <c r="A82" s="4">
         <v>2022</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="6">
         <v>44682</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -3366,14 +3397,14 @@
       <c r="A83" s="4">
         <v>2022</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="6">
         <v>44681</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -3387,14 +3418,14 @@
       <c r="A84" s="4">
         <v>2022</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="6">
         <v>44681</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -3408,14 +3439,14 @@
       <c r="A85" s="4">
         <v>2022</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="6">
         <v>44680</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3427,14 +3458,14 @@
       <c r="A86" s="4">
         <v>2022</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="6">
         <v>44682</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3448,14 +3479,14 @@
       <c r="A87" s="4">
         <v>2022</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="6">
         <v>44682</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F87">
         <v>5</v>
@@ -3469,14 +3500,14 @@
       <c r="A88" s="4">
         <v>2022</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="6">
         <v>44681</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -3490,14 +3521,14 @@
       <c r="A89" s="4">
         <v>2022</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="6">
         <v>44681</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -3511,14 +3542,14 @@
       <c r="A90" s="4">
         <v>2022</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="6">
         <v>44680</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -3533,14 +3564,14 @@
       <c r="A91" s="4">
         <v>2022</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="6">
         <v>44680</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -3552,14 +3583,14 @@
       <c r="A92" s="4">
         <v>2022</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="6">
         <v>44682</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F92">
         <v>5</v>
@@ -3573,14 +3604,14 @@
       <c r="A93" s="4">
         <v>2022</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="6">
         <v>44682</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F93">
         <v>5</v>
@@ -3594,14 +3625,14 @@
       <c r="A94" s="4">
         <v>2022</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="6">
         <v>44683</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -3615,14 +3646,14 @@
       <c r="A95" s="4">
         <v>2022</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="3">
         <v>44681</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3634,14 +3665,14 @@
       <c r="A96" s="4">
         <v>2022</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C96" s="3">
         <v>44683</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -3655,14 +3686,14 @@
       <c r="A97" s="4">
         <v>2022</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="8">
+      <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="6">
         <v>44698</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3673,14 +3704,14 @@
       <c r="A98" s="4">
         <v>2022</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>275</v>
+      <c r="B98" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="C98" s="3">
         <v>44683</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -3695,14 +3726,14 @@
       <c r="A99" s="4">
         <v>2022</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C99" s="3">
         <v>44683</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -3716,14 +3747,14 @@
       <c r="A100" s="4">
         <v>2022</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C100" s="3">
         <v>44683</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F100">
         <v>5</v>
@@ -3731,20 +3762,20 @@
       <c r="H100" s="3">
         <v>44710</v>
       </c>
-      <c r="K100" s="18"/>
+      <c r="K100" s="13"/>
     </row>
     <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>2022</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C101" s="3">
         <v>44683</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -3758,14 +3789,14 @@
       <c r="A102" s="4">
         <v>2022</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="6">
         <v>44683</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -3774,22 +3805,22 @@
         <v>44733</v>
       </c>
       <c r="K102" s="3"/>
-      <c r="L102" s="19" t="s">
-        <v>145</v>
+      <c r="L102" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>2022</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="6">
         <v>44683</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -3803,14 +3834,14 @@
       <c r="A104" s="4">
         <v>2022</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C104" s="8">
+      <c r="B104" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="6">
         <v>44683</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -3824,14 +3855,14 @@
       <c r="A105" s="4">
         <v>2022</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="6">
         <v>44683</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F105">
         <v>5</v>
@@ -3845,14 +3876,14 @@
       <c r="A106" s="4">
         <v>2022</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="6">
         <v>44681</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F106">
         <v>5</v>
@@ -3866,14 +3897,14 @@
       <c r="A107" s="4">
         <v>2022</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="6">
         <v>44681</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F107">
         <v>5</v>
@@ -3887,14 +3918,14 @@
       <c r="A108" s="4">
         <v>2022</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="6">
         <v>44684</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F108">
         <v>5</v>
@@ -3908,14 +3939,14 @@
       <c r="A109" s="4">
         <v>2022</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="6">
         <v>44683</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -3929,14 +3960,14 @@
       <c r="A110" s="4">
         <v>2022</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="8">
+      <c r="B110" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="6">
         <v>44698</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3947,14 +3978,14 @@
       <c r="A111" s="4">
         <v>2022</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="6">
         <v>44683</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -3968,14 +3999,14 @@
       <c r="A112" s="4">
         <v>2022</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="6">
         <v>44682</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -3989,14 +4020,14 @@
       <c r="A113" s="4">
         <v>2022</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="6">
         <v>44680</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -4010,14 +4041,14 @@
       <c r="A114" s="4">
         <v>2022</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="6">
+        <v>44772</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C114" s="8">
-        <v>44772</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -4034,14 +4065,14 @@
       <c r="A115" s="4">
         <v>2022</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" s="8">
+      <c r="B115" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="6">
         <v>44683</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -4049,20 +4080,20 @@
       <c r="H115" s="3">
         <v>44710</v>
       </c>
-      <c r="K115" s="18"/>
+      <c r="K115" s="13"/>
     </row>
     <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>2022</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" s="8">
+      <c r="B116" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="6">
         <v>44681</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -4076,14 +4107,14 @@
       <c r="A117" s="4">
         <v>2022</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" t="s">
         <v>103</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="6">
         <v>44681</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4095,14 +4126,14 @@
       <c r="A118" s="4">
         <v>2022</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" s="8">
+      <c r="B118" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" s="6">
         <v>44681</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -4115,14 +4146,14 @@
       <c r="A119" s="4">
         <v>2022</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="6">
         <v>44681</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F119">
         <v>5</v>
@@ -4136,14 +4167,14 @@
       <c r="A120" s="4">
         <v>2022</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="6">
         <v>44681</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120">
         <v>6</v>
@@ -4157,14 +4188,14 @@
       <c r="A121" s="4">
         <v>2022</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="6">
         <v>44683</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -4178,14 +4209,14 @@
       <c r="A122" s="4">
         <v>2022</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="6">
         <v>44683</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -4199,14 +4230,14 @@
       <c r="A123" s="4">
         <v>2022</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="6">
         <v>44681</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -4220,14 +4251,14 @@
       <c r="A124" s="4">
         <v>2022</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" s="8">
+      <c r="B124" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" s="6">
         <v>44681</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -4241,14 +4272,14 @@
       <c r="A125" s="4">
         <v>2022</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="8">
+      <c r="B125" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" s="6">
         <v>44683</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F125">
         <v>4</v>
@@ -4262,14 +4293,14 @@
       <c r="A126" s="4">
         <v>2022</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C126" s="8">
+      <c r="B126" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="6">
         <v>44681</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -4284,14 +4315,14 @@
       <c r="A127" s="4">
         <v>2022</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C127" s="8">
+      <c r="B127" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="6">
         <v>44681</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -4305,14 +4336,14 @@
       <c r="A128" s="4">
         <v>2022</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128" s="8">
+      <c r="B128" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="6">
         <v>44681</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F128">
         <v>5</v>
@@ -4326,14 +4357,14 @@
       <c r="A129" s="4">
         <v>2022</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="8">
+      <c r="B129" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" s="6">
         <v>44681</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F129">
         <v>5</v>
@@ -4347,14 +4378,14 @@
       <c r="A130" s="4">
         <v>2022</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C130" s="8">
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="6">
         <v>44681</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4366,14 +4397,14 @@
       <c r="A131" s="4">
         <v>2022</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C131" s="8">
+      <c r="B131" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="6">
         <v>44681</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -4387,14 +4418,14 @@
       <c r="A132" s="4">
         <v>2022</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="8">
+      <c r="B132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="6">
         <v>44684</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E132">
         <v>5</v>
@@ -4408,14 +4439,14 @@
       <c r="A133" s="4">
         <v>2022</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C133" s="8">
+      <c r="B133" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="6">
         <v>44681</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -4429,14 +4460,14 @@
       <c r="A134" s="4">
         <v>2022</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" s="8">
+      <c r="B134" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="6">
         <v>44683</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F134">
         <v>6</v>
@@ -4450,14 +4481,14 @@
       <c r="A135" s="4">
         <v>2022</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C135" s="8">
+      <c r="B135" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="6">
         <v>44697</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E135">
         <v>5</v>
@@ -4470,14 +4501,14 @@
       <c r="A136" s="4">
         <v>2022</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C136" s="8">
+      <c r="B136" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="6">
         <v>44683</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -4491,14 +4522,14 @@
       <c r="A137" s="4">
         <v>2022</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C137" s="8">
+      <c r="B137" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="6">
         <v>44682</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E137">
         <v>5</v>
@@ -4512,14 +4543,14 @@
       <c r="A138" s="4">
         <v>2022</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C138" s="8">
+      <c r="B138" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="6">
         <v>44681</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -4533,14 +4564,14 @@
       <c r="A139" s="4">
         <v>2022</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="8">
+      <c r="B139" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="6">
         <v>44681</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -4554,14 +4585,14 @@
       <c r="A140" s="4">
         <v>2022</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="8">
+      <c r="B140" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="6">
         <v>44683</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -4575,14 +4606,14 @@
       <c r="A141" s="4">
         <v>2022</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C141" s="8">
+      <c r="B141" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="6">
         <v>44684</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -4596,14 +4627,14 @@
       <c r="A142" s="4">
         <v>2022</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C142" s="8">
+      <c r="B142" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="6">
         <v>44684</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -4611,20 +4642,20 @@
       <c r="H142" s="3">
         <v>44709</v>
       </c>
-      <c r="K142" s="23"/>
+      <c r="K142" s="15"/>
     </row>
     <row r="143" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>2022</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C143" s="8">
+      <c r="B143" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="6">
         <v>44684</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E143">
         <v>4</v>
@@ -4638,14 +4669,14 @@
       <c r="A144" s="4">
         <v>2022</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C144" s="8">
+      <c r="B144" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="6">
         <v>44680</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -4659,14 +4690,14 @@
       <c r="A145" s="4">
         <v>2022</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C145" s="8">
+      <c r="B145" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="6">
         <v>44681</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F145">
         <v>6</v>
@@ -4680,14 +4711,14 @@
       <c r="A146" s="4">
         <v>2022</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="8">
+      <c r="B146" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="6">
         <v>44682</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F146">
         <v>5</v>
@@ -4701,14 +4732,14 @@
       <c r="A147" s="4">
         <v>2022</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C147" s="8">
+      <c r="B147" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="6">
         <v>44682</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -4716,20 +4747,20 @@
       <c r="H147" s="3">
         <v>44768</v>
       </c>
-      <c r="K147" s="18"/>
+      <c r="K147" s="13"/>
     </row>
     <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>2022</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" s="8">
+      <c r="B148" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="6">
         <v>44682</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F148">
         <v>5</v>
@@ -4743,14 +4774,14 @@
       <c r="A149" s="4">
         <v>2022</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C149" s="8">
+      <c r="B149" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="6">
         <v>44682</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -4764,14 +4795,14 @@
       <c r="A150" s="4">
         <v>2022</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C150" s="8">
+      <c r="B150" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="6">
         <v>44682</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F150">
         <v>5</v>
@@ -4785,14 +4816,14 @@
       <c r="A151" s="4">
         <v>2022</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C151" s="8">
+      <c r="B151" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="6">
         <v>44682</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -4806,14 +4837,14 @@
       <c r="A152" s="4">
         <v>2022</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C152" s="8">
+      <c r="B152" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152" s="6">
         <v>44682</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -4827,14 +4858,14 @@
       <c r="A153" s="4">
         <v>2022</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C153" s="8">
+      <c r="B153" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" s="6">
         <v>44710</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F153">
         <v>5</v>
@@ -4848,14 +4879,14 @@
       <c r="A154" s="4">
         <v>2022</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C154" s="8">
+      <c r="B154" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="6">
         <v>44684</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F154">
         <v>5</v>
@@ -4863,20 +4894,20 @@
       <c r="H154" s="3">
         <v>44711</v>
       </c>
-      <c r="K154" s="23"/>
+      <c r="K154" s="15"/>
     </row>
     <row r="155" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>2022</v>
       </c>
-      <c r="B155" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C155" s="8">
+      <c r="B155" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" s="6">
         <v>44684</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4889,14 +4920,14 @@
       <c r="A156" s="4">
         <v>2022</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C156" s="8">
+      <c r="B156" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156" s="6">
         <v>44683</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E156">
         <v>5</v>
@@ -4905,20 +4936,20 @@
         <v>44711</v>
       </c>
       <c r="I156" s="3"/>
-      <c r="K156" s="23"/>
+      <c r="K156" s="15"/>
     </row>
     <row r="157" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>2022</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C157" s="8">
+      <c r="B157" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="6">
         <v>44683</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F157">
         <v>8</v>
@@ -4926,1695 +4957,1718 @@
       <c r="H157" s="3">
         <v>44708</v>
       </c>
-      <c r="K157" s="23"/>
+      <c r="K157" s="15"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D158" s="23"/>
+      <c r="B158" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="H158" s="3">
+        <v>44797</v>
+      </c>
+      <c r="K158" s="15"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D159" s="23"/>
+      <c r="B159" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="H159" s="3">
+        <v>44785</v>
+      </c>
+      <c r="K159" s="15"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B160" s="3"/>
-      <c r="D160"/>
+      <c r="B160" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="H160" s="3">
+        <v>44787</v>
+      </c>
+      <c r="I160" s="3"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B161" s="3"/>
-      <c r="D161"/>
+      <c r="B161" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="H161" s="3">
+        <v>44788</v>
+      </c>
+      <c r="I161" s="3"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B162" s="3"/>
-      <c r="D162"/>
+      <c r="B162" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="H162" s="3">
+        <v>44786</v>
+      </c>
+      <c r="I162" s="3"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B163" s="6"/>
-      <c r="C163" s="8"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="6"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B164" s="6"/>
-      <c r="C164" s="8"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="6"/>
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B165" s="6"/>
-      <c r="C165" s="8"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
       <c r="H165" s="3"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B166" s="6"/>
-      <c r="C166" s="8"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B167" s="6"/>
-      <c r="C167" s="8"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="6"/>
       <c r="H167" s="3"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B168" s="6"/>
-      <c r="C168" s="8"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="6"/>
       <c r="H168" s="3"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B169" s="6"/>
-      <c r="C169" s="8"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6"/>
       <c r="H169" s="3"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B170" s="6"/>
-      <c r="C170" s="8"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="6"/>
       <c r="H170" s="3"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" s="6"/>
-      <c r="C171" s="8"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6"/>
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B172" s="6"/>
-      <c r="C172" s="8"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B173" s="6"/>
-      <c r="C173" s="8"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B174" s="6"/>
-      <c r="C174" s="8"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B175" s="6"/>
-      <c r="C175" s="8"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
       <c r="H175" s="3"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" s="6"/>
-      <c r="C176" s="8"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="6"/>
-      <c r="C177" s="8"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="6"/>
-      <c r="C178" s="8"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="6"/>
       <c r="H178" s="3"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B179" s="6"/>
-      <c r="C179" s="8"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6"/>
       <c r="H179" s="3"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B180" s="6"/>
-      <c r="C180" s="8"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="6"/>
       <c r="H180" s="3"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B181" s="6"/>
-      <c r="C181" s="8"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6"/>
       <c r="H181" s="3"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="6"/>
-      <c r="C182" s="8"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6"/>
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B183" s="6"/>
-      <c r="C183" s="8"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="6"/>
       <c r="H183" s="3"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B184" s="6"/>
-      <c r="C184" s="8"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="6"/>
       <c r="H184" s="3"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B185" s="6"/>
-      <c r="C185" s="8"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6"/>
       <c r="H185" s="3"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B186" s="6"/>
-      <c r="C186" s="8"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="6"/>
       <c r="H186" s="3"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B187" s="6"/>
-      <c r="C187" s="8"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="6"/>
       <c r="H187" s="3"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B188" s="6"/>
-      <c r="C188" s="8"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="6"/>
       <c r="H188" s="3"/>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B189" s="6"/>
-      <c r="C189" s="8"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="6"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B190" s="6"/>
-      <c r="C190" s="8"/>
+    <row r="190" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="5"/>
+      <c r="C190" s="6"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="6"/>
-      <c r="C191" s="8"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="6"/>
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="6"/>
-      <c r="C192" s="8"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="6"/>
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="6"/>
-      <c r="C193" s="8"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="6"/>
       <c r="H193" s="3"/>
     </row>
     <row r="194" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="6"/>
-      <c r="C194" s="8"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="6"/>
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="6"/>
-      <c r="C195" s="8"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="6"/>
       <c r="H195" s="3"/>
     </row>
     <row r="196" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="6"/>
-      <c r="C196" s="8"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="6"/>
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="6"/>
-      <c r="C197" s="8"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="6"/>
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="6"/>
-      <c r="C198" s="8"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="6"/>
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="6"/>
-      <c r="C199" s="8"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6"/>
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="6"/>
-      <c r="C200" s="8"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="6"/>
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="6"/>
-      <c r="C201" s="8"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="6"/>
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="6"/>
-      <c r="C202" s="8"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="6"/>
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="6"/>
-      <c r="C203" s="8"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="6"/>
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="6"/>
-      <c r="C204" s="8"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="6"/>
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="6"/>
-      <c r="C205" s="8"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="6"/>
-      <c r="C206" s="8"/>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B206" s="5"/>
+      <c r="C206" s="6"/>
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B207" s="6"/>
-      <c r="C207" s="8"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="6"/>
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B208" s="6"/>
-      <c r="C208" s="8"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="6"/>
       <c r="H208" s="3"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B209" s="6"/>
-      <c r="C209" s="8"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="6"/>
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B210" s="6"/>
-      <c r="C210" s="8"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="6"/>
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B211" s="6"/>
-      <c r="C211" s="8"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="6"/>
       <c r="H211" s="3"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="6"/>
-      <c r="C212" s="8"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6"/>
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B213" s="6"/>
-      <c r="C213" s="8"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6"/>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B214" s="6"/>
-      <c r="C214" s="8"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B215" s="6"/>
-      <c r="C215" s="8"/>
+    <row r="215" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
       <c r="H215" s="3"/>
     </row>
     <row r="216" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="6"/>
-      <c r="C216" s="8"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6"/>
       <c r="H216" s="3"/>
     </row>
     <row r="217" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="6"/>
-      <c r="C217" s="8"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="6"/>
-      <c r="C218" s="8"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6"/>
       <c r="H218" s="3"/>
     </row>
     <row r="219" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="6"/>
-      <c r="C219" s="8"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="6"/>
-      <c r="C220" s="8"/>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
       <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B221" s="6"/>
-      <c r="C221" s="8"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="6"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B222" s="6"/>
-      <c r="C222" s="8"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="6"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B223" s="6"/>
-      <c r="C223" s="8"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="6"/>
       <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B224" s="6"/>
-      <c r="C224" s="8"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
       <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B225" s="6"/>
-      <c r="C225" s="8"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B226" s="6"/>
-      <c r="C226" s="8"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="6"/>
       <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B227" s="6"/>
-      <c r="C227" s="8"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="6"/>
       <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B228" s="6"/>
-      <c r="C228" s="8"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B229" s="6"/>
-      <c r="C229" s="8"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="6"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B230" s="6"/>
-      <c r="C230" s="8"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="6"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B231" s="6"/>
-      <c r="C231" s="8"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="6"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="6"/>
-      <c r="C232" s="8"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="6"/>
       <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="6"/>
-      <c r="C233" s="8"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="6"/>
       <c r="H233" s="3"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B234" s="6"/>
-      <c r="C234" s="8"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B235" s="6"/>
-      <c r="C235" s="8"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B236" s="6"/>
-      <c r="C236" s="8"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
       <c r="H236" s="3"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B237" s="6"/>
-      <c r="C237" s="8"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
       <c r="H237" s="3"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B238" s="6"/>
-      <c r="C238" s="8"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B239" s="6"/>
-      <c r="C239" s="8"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B240" s="6"/>
-      <c r="C240" s="8"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
       <c r="H240" s="3"/>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B241" s="6"/>
-      <c r="C241" s="8"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B242" s="6"/>
-      <c r="C242" s="8"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
       <c r="H242" s="3"/>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B243" s="6"/>
-      <c r="C243" s="8"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B244" s="6"/>
-      <c r="C244" s="8"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
       <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B245" s="6"/>
-      <c r="C245" s="8"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B246" s="6"/>
-      <c r="C246" s="8"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="6"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B247" s="6"/>
-      <c r="C247" s="8"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B248" s="6"/>
-      <c r="C248" s="8"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="6"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B249" s="6"/>
-      <c r="C249" s="8"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="6"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B250" s="6"/>
-      <c r="C250" s="8"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="6"/>
       <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B251" s="6"/>
-      <c r="C251" s="8"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="6"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B252" s="6"/>
-      <c r="C252" s="8"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="6"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B253" s="6"/>
-      <c r="C253" s="8"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="6"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B254" s="6"/>
-      <c r="C254" s="8"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="6"/>
       <c r="H254" s="3"/>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B255" s="6"/>
-      <c r="C255" s="8"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="6"/>
       <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B256" s="6"/>
-      <c r="C256" s="8"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="6"/>
       <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B257" s="6"/>
-      <c r="C257" s="8"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="6"/>
       <c r="H257" s="3"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B258" s="6"/>
-      <c r="C258" s="8"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="6"/>
       <c r="H258" s="3"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B259" s="6"/>
-      <c r="C259" s="8"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="6"/>
       <c r="H259" s="3"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B260" s="6"/>
-      <c r="C260" s="8"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
       <c r="H260" s="3"/>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B261" s="6"/>
-      <c r="C261" s="8"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
       <c r="H261" s="3"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B262" s="6"/>
-      <c r="C262" s="8"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="6"/>
       <c r="H262" s="3"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B263" s="6"/>
-      <c r="C263" s="8"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="6"/>
       <c r="H263" s="3"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B264" s="6"/>
-      <c r="C264" s="8"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="6"/>
       <c r="H264" s="3"/>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B265" s="6"/>
-      <c r="C265" s="8"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="6"/>
       <c r="H265" s="3"/>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B266" s="6"/>
-      <c r="C266" s="8"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
       <c r="H266" s="3"/>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B267" s="6"/>
-      <c r="C267" s="8"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="6"/>
       <c r="H267" s="3"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B268" s="6"/>
-      <c r="C268" s="8"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="6"/>
       <c r="H268" s="3"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B269" s="6"/>
-      <c r="C269" s="8"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="6"/>
       <c r="H269" s="3"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B270" s="6"/>
-      <c r="C270" s="8"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="6"/>
       <c r="H270" s="3"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B271" s="6"/>
-      <c r="C271" s="8"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="6"/>
       <c r="H271" s="3"/>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B272" s="6"/>
-      <c r="C272" s="8"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="6"/>
       <c r="H272" s="3"/>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B273" s="6"/>
-      <c r="C273" s="8"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="6"/>
       <c r="H273" s="3"/>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B274" s="6"/>
-      <c r="C274" s="8"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="6"/>
       <c r="H274" s="3"/>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B275" s="6"/>
-      <c r="C275" s="8"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="6"/>
       <c r="H275" s="3"/>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B276" s="6"/>
-      <c r="C276" s="8"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="6"/>
       <c r="H276" s="3"/>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B277" s="6"/>
-      <c r="C277" s="8"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="6"/>
       <c r="H277" s="3"/>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B278" s="6"/>
-      <c r="C278" s="8"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
       <c r="H278" s="3"/>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B279" s="6"/>
-      <c r="C279" s="8"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
       <c r="H279" s="3"/>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B280" s="6"/>
-      <c r="C280" s="8"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
       <c r="H280" s="3"/>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B281" s="6"/>
-      <c r="C281" s="8"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
       <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B282" s="6"/>
-      <c r="C282" s="8"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B283" s="6"/>
-      <c r="C283" s="8"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B284" s="6"/>
-      <c r="C284" s="8"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
     </row>
     <row r="285" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B285" s="6"/>
-      <c r="C285" s="8"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
       <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
     </row>
     <row r="286" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B286" s="6"/>
-      <c r="C286" s="8"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
       <c r="H286" s="3"/>
     </row>
     <row r="287" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B287" s="6"/>
-      <c r="C287" s="8"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
       <c r="H287" s="3"/>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B288" s="6"/>
-      <c r="C288" s="8"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
       <c r="H288" s="3"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B289" s="6"/>
-      <c r="C289" s="8"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
       <c r="H289" s="3"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B290" s="6"/>
-      <c r="C290" s="8"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
       <c r="H290" s="3"/>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B291" s="6"/>
-      <c r="C291" s="8"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
       <c r="H291" s="3"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B292" s="6"/>
-      <c r="C292" s="8"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
       <c r="H292" s="3"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B293" s="6"/>
-      <c r="C293" s="8"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="6"/>
       <c r="H293" s="3"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B294" s="6"/>
-      <c r="C294" s="8"/>
+      <c r="C294" s="6"/>
       <c r="H294" s="3"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C295" s="8"/>
+      <c r="C295" s="6"/>
       <c r="H295" s="3"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C296" s="8"/>
+      <c r="C296" s="6"/>
       <c r="H296" s="3"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C297" s="8"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="6"/>
       <c r="H297" s="3"/>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B298" s="6"/>
-      <c r="C298" s="8"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="6"/>
       <c r="H298" s="3"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B299" s="6"/>
-      <c r="C299" s="8"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="6"/>
       <c r="H299" s="3"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B300" s="6"/>
-      <c r="C300" s="8"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="6"/>
       <c r="H300" s="3"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B301" s="6"/>
-      <c r="C301" s="8"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="6"/>
       <c r="H301" s="3"/>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B302" s="6"/>
-      <c r="C302" s="8"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="6"/>
       <c r="H302" s="3"/>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B303" s="6"/>
-      <c r="C303" s="8"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="6"/>
       <c r="H303" s="3"/>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B304" s="6"/>
-      <c r="C304" s="8"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="6"/>
       <c r="H304" s="3"/>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B305" s="6"/>
-      <c r="C305" s="8"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="6"/>
       <c r="H305" s="3"/>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B306" s="6"/>
-      <c r="C306" s="8"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="6"/>
       <c r="H306" s="3"/>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B307" s="6"/>
-      <c r="C307" s="8"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="6"/>
       <c r="H307" s="3"/>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B308" s="6"/>
-      <c r="C308" s="8"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="6"/>
       <c r="H308" s="3"/>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B309" s="6"/>
-      <c r="C309" s="8"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="6"/>
       <c r="H309" s="3"/>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B310" s="6"/>
-      <c r="C310" s="8"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="6"/>
       <c r="H310" s="3"/>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B311" s="6"/>
-      <c r="C311" s="8"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="6"/>
       <c r="H311" s="3"/>
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B312" s="6"/>
-      <c r="C312" s="8"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="6"/>
       <c r="H312" s="3"/>
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B313" s="6"/>
-      <c r="C313" s="8"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="6"/>
       <c r="H313" s="3"/>
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B314" s="6"/>
-      <c r="C314" s="8"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="6"/>
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B315" s="6"/>
-      <c r="C315" s="8"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="6"/>
       <c r="H315" s="3"/>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B316" s="6"/>
-      <c r="C316" s="8"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="6"/>
       <c r="H316" s="3"/>
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B317" s="6"/>
-      <c r="C317" s="8"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="6"/>
       <c r="H317" s="3"/>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B318" s="6"/>
-      <c r="C318" s="8"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="6"/>
       <c r="H318" s="3"/>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B319" s="6"/>
-      <c r="C319" s="8"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="6"/>
       <c r="H319" s="3"/>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B320" s="6"/>
-      <c r="C320" s="8"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="6"/>
       <c r="H320" s="3"/>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B321" s="6"/>
-      <c r="C321" s="8"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="6"/>
       <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B322" s="6"/>
-      <c r="C322" s="8"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="6"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B323" s="6"/>
-      <c r="C323" s="8"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="6"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B324" s="6"/>
-      <c r="C324" s="8"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="6"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B325" s="6"/>
-      <c r="C325" s="8"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="6"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B326" s="6"/>
-      <c r="C326" s="8"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="6"/>
       <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B327" s="6"/>
-      <c r="C327" s="8"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="6"/>
       <c r="H327" s="3"/>
     </row>
     <row r="328" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B328" s="6"/>
-      <c r="C328" s="8"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="6"/>
       <c r="H328" s="3"/>
     </row>
     <row r="329" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B329" s="6"/>
-      <c r="C329" s="8"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="6"/>
       <c r="H329" s="3"/>
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B330" s="6"/>
-      <c r="C330" s="8"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="6"/>
       <c r="H330" s="3"/>
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B331" s="6"/>
-      <c r="C331" s="8"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="6"/>
       <c r="H331" s="3"/>
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B332" s="6"/>
-      <c r="C332" s="8"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="6"/>
       <c r="H332" s="3"/>
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B333" s="6"/>
-      <c r="C333" s="8"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="6"/>
       <c r="H333" s="3"/>
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B334" s="6"/>
-      <c r="C334" s="8"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="6"/>
       <c r="H334" s="3"/>
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B335" s="6"/>
-      <c r="C335" s="8"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="6"/>
       <c r="H335" s="3"/>
     </row>
     <row r="336" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B336" s="6"/>
-      <c r="C336" s="8"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="6"/>
       <c r="H336" s="3"/>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B337" s="6"/>
-      <c r="C337" s="8"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6"/>
       <c r="H337" s="3"/>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B338" s="6"/>
-      <c r="C338" s="8"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="6"/>
       <c r="H338" s="3"/>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B339" s="6"/>
-      <c r="C339" s="8"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="6"/>
       <c r="H339" s="3"/>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B340" s="6"/>
-      <c r="C340" s="8"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="6"/>
       <c r="H340" s="3"/>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B341" s="6"/>
-      <c r="C341" s="8"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="6"/>
       <c r="H341" s="3"/>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B342" s="6"/>
-      <c r="C342" s="8"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="6"/>
       <c r="H342" s="3"/>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B343" s="6"/>
-      <c r="C343" s="8"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="6"/>
       <c r="H343" s="3"/>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B344" s="6"/>
-      <c r="C344" s="8"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="6"/>
       <c r="H344" s="3"/>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B345" s="6"/>
-      <c r="C345" s="8"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="6"/>
       <c r="H345" s="3"/>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B346" s="6"/>
-      <c r="C346" s="8"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="6"/>
       <c r="H346" s="3"/>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B347" s="6"/>
-      <c r="C347" s="8"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="6"/>
       <c r="H347" s="3"/>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B348" s="6"/>
-      <c r="C348" s="8"/>
+      <c r="B348" s="11"/>
+      <c r="C348" s="6"/>
       <c r="H348" s="3"/>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B349" s="13"/>
-      <c r="C349" s="8"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="6"/>
       <c r="H349" s="3"/>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B350" s="6"/>
-      <c r="C350" s="8"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="6"/>
       <c r="H350" s="3"/>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B351" s="6"/>
-      <c r="C351" s="8"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="6"/>
       <c r="H351" s="3"/>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B352" s="6"/>
-      <c r="C352" s="8"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="6"/>
       <c r="H352" s="3"/>
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B353" s="6"/>
-      <c r="C353" s="8"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="6"/>
       <c r="H353" s="3"/>
     </row>
     <row r="354" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B354" s="6"/>
-      <c r="C354" s="8"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="6"/>
       <c r="H354" s="3"/>
     </row>
     <row r="355" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B355" s="6"/>
-      <c r="C355" s="8"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="6"/>
       <c r="H355" s="3"/>
     </row>
     <row r="356" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B356" s="6"/>
-      <c r="C356" s="8"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="6"/>
       <c r="H356" s="3"/>
     </row>
     <row r="357" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B357" s="6"/>
-      <c r="C357" s="8"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="6"/>
       <c r="H357" s="3"/>
     </row>
     <row r="358" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B358" s="6"/>
-      <c r="C358" s="8"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="6"/>
       <c r="H358" s="3"/>
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B359" s="6"/>
-      <c r="C359" s="8"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="6"/>
       <c r="H359" s="3"/>
+      <c r="I359" s="3"/>
     </row>
     <row r="360" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B360" s="6"/>
-      <c r="C360" s="8"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="6"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
     </row>
     <row r="361" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B361" s="6"/>
-      <c r="C361" s="8"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="6"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
     </row>
     <row r="362" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B362" s="6"/>
-      <c r="C362" s="8"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="6"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
     </row>
     <row r="363" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B363" s="6"/>
-      <c r="C363" s="8"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="6"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
     </row>
     <row r="364" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B364" s="6"/>
-      <c r="C364" s="8"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="6"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
     </row>
     <row r="365" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B365" s="6"/>
-      <c r="C365" s="8"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="6"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
     </row>
     <row r="366" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B366" s="6"/>
-      <c r="C366" s="8"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="6"/>
       <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
     </row>
     <row r="367" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B367" s="6"/>
-      <c r="C367" s="8"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="6"/>
       <c r="H367" s="3"/>
     </row>
     <row r="368" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B368" s="6"/>
-      <c r="C368" s="8"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="6"/>
       <c r="H368" s="3"/>
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B369" s="6"/>
-      <c r="C369" s="8"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="6"/>
       <c r="H369" s="3"/>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B370" s="6"/>
-      <c r="C370" s="8"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="6"/>
       <c r="H370" s="3"/>
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B371" s="6"/>
-      <c r="C371" s="8"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="6"/>
       <c r="H371" s="3"/>
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B372" s="6"/>
-      <c r="C372" s="8"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="6"/>
       <c r="H372" s="3"/>
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B373" s="6"/>
-      <c r="C373" s="8"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="6"/>
       <c r="H373" s="3"/>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B374" s="6"/>
-      <c r="C374" s="8"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="6"/>
       <c r="H374" s="3"/>
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B375" s="6"/>
-      <c r="C375" s="8"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="6"/>
       <c r="H375" s="3"/>
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B376" s="6"/>
-      <c r="C376" s="8"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="6"/>
       <c r="H376" s="3"/>
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B377" s="6"/>
-      <c r="C377" s="8"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="6"/>
       <c r="H377" s="3"/>
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B378" s="6"/>
-      <c r="C378" s="8"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="6"/>
       <c r="H378" s="3"/>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B379" s="6"/>
-      <c r="C379" s="8"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="6"/>
       <c r="H379" s="3"/>
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B380" s="6"/>
-      <c r="C380" s="8"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="6"/>
       <c r="H380" s="3"/>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B381" s="6"/>
-      <c r="C381" s="8"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="6"/>
       <c r="H381" s="3"/>
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B382" s="6"/>
-      <c r="C382" s="8"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="6"/>
       <c r="H382" s="3"/>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B383" s="6"/>
-      <c r="C383" s="8"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="6"/>
       <c r="H383" s="3"/>
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B384" s="6"/>
-      <c r="C384" s="8"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="6"/>
       <c r="H384" s="3"/>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B385" s="6"/>
-      <c r="C385" s="8"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="6"/>
       <c r="H385" s="3"/>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B386" s="6"/>
-      <c r="C386" s="8"/>
+      <c r="B386" s="11"/>
+      <c r="C386" s="6"/>
       <c r="H386" s="3"/>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B387" s="13"/>
-      <c r="C387" s="8"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="6"/>
       <c r="H387" s="3"/>
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B388" s="6"/>
-      <c r="C388" s="8"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="6"/>
       <c r="H388" s="3"/>
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B389" s="6"/>
-      <c r="C389" s="8"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="6"/>
       <c r="H389" s="3"/>
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B390" s="6"/>
-      <c r="C390" s="8"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="6"/>
       <c r="H390" s="3"/>
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B391" s="6"/>
-      <c r="C391" s="8"/>
-      <c r="H391" s="3"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="6"/>
+      <c r="H391" s="7"/>
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B392" s="6"/>
-      <c r="C392" s="8"/>
-      <c r="H392" s="9"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="6"/>
+      <c r="H392" s="7"/>
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B393" s="6"/>
-      <c r="C393" s="8"/>
-      <c r="H393" s="9"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="6"/>
+      <c r="H393" s="7"/>
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B394" s="6"/>
-      <c r="C394" s="8"/>
-      <c r="H394" s="9"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="6"/>
+      <c r="H394" s="7"/>
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B395" s="6"/>
-      <c r="C395" s="8"/>
-      <c r="H395" s="9"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="6"/>
+      <c r="H395" s="7"/>
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B396" s="6"/>
-      <c r="C396" s="8"/>
-      <c r="H396" s="9"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="6"/>
+      <c r="H396" s="7"/>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B397" s="6"/>
-      <c r="C397" s="8"/>
-      <c r="H397" s="9"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="6"/>
+      <c r="H397" s="7"/>
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B398" s="6"/>
-      <c r="C398" s="8"/>
-      <c r="H398" s="9"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="6"/>
+      <c r="H398" s="7"/>
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B399" s="6"/>
-      <c r="C399" s="8"/>
-      <c r="H399" s="9"/>
+      <c r="C399" s="6"/>
+      <c r="H399" s="7"/>
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C400" s="8"/>
-      <c r="H400" s="9"/>
+      <c r="C400" s="6"/>
+      <c r="H400" s="7"/>
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C401" s="8"/>
-      <c r="H401" s="9"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="6"/>
+      <c r="H401" s="3"/>
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B402" s="6"/>
-      <c r="C402" s="8"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="6"/>
       <c r="H402" s="3"/>
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B403" s="6"/>
-      <c r="C403" s="8"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="6"/>
       <c r="H403" s="3"/>
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B404" s="6"/>
-      <c r="C404" s="8"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="6"/>
       <c r="H404" s="3"/>
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B405" s="6"/>
-      <c r="C405" s="8"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="6"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B406" s="6"/>
-      <c r="C406" s="8"/>
+    <row r="406" spans="2:8" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C406" s="6"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="2:8" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C407" s="8"/>
-      <c r="H407" s="3"/>
+    <row r="407" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B407" s="5"/>
+      <c r="C407" s="6"/>
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B408" s="6"/>
-      <c r="C408" s="8"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="6"/>
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B409" s="6"/>
-      <c r="C409" s="8"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="6"/>
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B410" s="6"/>
-      <c r="C410" s="8"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="6"/>
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B411" s="6"/>
-      <c r="C411" s="8"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="6"/>
+      <c r="H411" s="3"/>
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B412" s="6"/>
-      <c r="C412" s="8"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="6"/>
       <c r="H412" s="3"/>
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B413" s="6"/>
-      <c r="C413" s="8"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="6"/>
       <c r="H413" s="3"/>
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B414" s="6"/>
-      <c r="C414" s="8"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="6"/>
       <c r="H414" s="3"/>
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B415" s="6"/>
-      <c r="C415" s="8"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="6"/>
       <c r="H415" s="3"/>
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B416" s="6"/>
-      <c r="C416" s="8"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="6"/>
       <c r="H416" s="3"/>
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B417" s="6"/>
-      <c r="C417" s="8"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="6"/>
       <c r="H417" s="3"/>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B418" s="6"/>
-      <c r="C418" s="8"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="6"/>
       <c r="H418" s="3"/>
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B419" s="6"/>
-      <c r="C419" s="8"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="6"/>
       <c r="H419" s="3"/>
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B420" s="6"/>
-      <c r="C420" s="8"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="6"/>
       <c r="H420" s="3"/>
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B421" s="6"/>
-      <c r="C421" s="8"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="6"/>
       <c r="H421" s="3"/>
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B422" s="6"/>
-      <c r="C422" s="8"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="6"/>
       <c r="H422" s="3"/>
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B423" s="6"/>
-      <c r="C423" s="8"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="6"/>
       <c r="H423" s="3"/>
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B424" s="6"/>
-      <c r="C424" s="8"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="6"/>
       <c r="H424" s="3"/>
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B425" s="6"/>
-      <c r="C425" s="8"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="6"/>
       <c r="H425" s="3"/>
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B426" s="6"/>
-      <c r="C426" s="8"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="6"/>
       <c r="H426" s="3"/>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B427" s="6"/>
-      <c r="C427" s="8"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="6"/>
       <c r="H427" s="3"/>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B428" s="6"/>
-      <c r="C428" s="8"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="6"/>
       <c r="H428" s="3"/>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B429" s="6"/>
-      <c r="C429" s="8"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="6"/>
       <c r="H429" s="3"/>
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B430" s="6"/>
-      <c r="C430" s="8"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="6"/>
       <c r="H430" s="3"/>
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B431" s="6"/>
-      <c r="C431" s="8"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="6"/>
       <c r="H431" s="3"/>
     </row>
     <row r="432" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B432" s="6"/>
-      <c r="C432" s="8"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="6"/>
       <c r="H432" s="3"/>
     </row>
     <row r="433" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B433" s="6"/>
-      <c r="C433" s="8"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="6"/>
       <c r="H433" s="3"/>
     </row>
     <row r="434" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B434" s="6"/>
-      <c r="C434" s="8"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="6"/>
       <c r="H434" s="3"/>
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B435" s="6"/>
-      <c r="C435" s="8"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="6"/>
       <c r="H435" s="3"/>
     </row>
     <row r="436" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B436" s="6"/>
-      <c r="C436" s="8"/>
-      <c r="H436" s="3"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="6"/>
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B437" s="6"/>
-      <c r="C437" s="8"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="6"/>
     </row>
     <row r="438" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B438" s="6"/>
-      <c r="C438" s="8"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="6"/>
     </row>
     <row r="439" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B439" s="6"/>
-      <c r="C439" s="8"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="6"/>
     </row>
     <row r="440" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B440" s="6"/>
-      <c r="C440" s="8"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="6"/>
     </row>
     <row r="441" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B441" s="6"/>
-      <c r="C441" s="8"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="6"/>
+      <c r="H441" s="3"/>
     </row>
     <row r="442" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B442" s="6"/>
-      <c r="C442" s="8"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="6"/>
       <c r="H442" s="3"/>
     </row>
     <row r="443" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B443" s="6"/>
-      <c r="C443" s="8"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="6"/>
       <c r="H443" s="3"/>
     </row>
     <row r="444" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B444" s="6"/>
-      <c r="C444" s="8"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="6"/>
       <c r="H444" s="3"/>
     </row>
     <row r="445" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B445" s="6"/>
-      <c r="C445" s="8"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="6"/>
       <c r="H445" s="3"/>
     </row>
     <row r="446" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B446" s="6"/>
-      <c r="C446" s="8"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="6"/>
       <c r="H446" s="3"/>
     </row>
     <row r="447" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B447" s="6"/>
-      <c r="C447" s="8"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="6"/>
       <c r="H447" s="3"/>
     </row>
     <row r="448" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B448" s="6"/>
-      <c r="C448" s="8"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="6"/>
       <c r="H448" s="3"/>
     </row>
     <row r="449" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B449" s="6"/>
-      <c r="C449" s="8"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="6"/>
       <c r="H449" s="3"/>
     </row>
     <row r="450" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B450" s="6"/>
-      <c r="C450" s="8"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="6"/>
       <c r="H450" s="3"/>
     </row>
     <row r="451" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B451" s="6"/>
-      <c r="C451" s="8"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="6"/>
       <c r="H451" s="3"/>
     </row>
     <row r="452" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B452" s="6"/>
-      <c r="C452" s="8"/>
+      <c r="B452" s="5"/>
+      <c r="C452" s="6"/>
       <c r="H452" s="3"/>
     </row>
     <row r="453" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B453" s="6"/>
-      <c r="C453" s="8"/>
+      <c r="B453" s="5"/>
+      <c r="C453" s="6"/>
       <c r="H453" s="3"/>
     </row>
     <row r="454" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B454" s="6"/>
-      <c r="C454" s="8"/>
-      <c r="H454" s="3"/>
+      <c r="B454" s="5"/>
+      <c r="C454" s="6"/>
     </row>
     <row r="455" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B455" s="6"/>
-      <c r="C455" s="8"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="6"/>
     </row>
     <row r="456" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B456" s="6"/>
-      <c r="C456" s="8"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="6"/>
     </row>
     <row r="457" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B457" s="6"/>
-      <c r="C457" s="8"/>
+      <c r="B457" s="5"/>
+      <c r="C457" s="6"/>
+      <c r="H457" s="3"/>
+      <c r="I457" s="3"/>
     </row>
     <row r="458" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B458" s="6"/>
-      <c r="C458" s="8"/>
+      <c r="B458" s="5"/>
+      <c r="C458" s="6"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
     </row>
     <row r="459" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B459" s="6"/>
-      <c r="C459" s="8"/>
+      <c r="B459" s="5"/>
+      <c r="C459" s="6"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B460" s="6"/>
-      <c r="C460" s="8"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="6"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
     </row>
     <row r="461" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B461" s="6"/>
-      <c r="C461" s="8"/>
-      <c r="H461" s="3"/>
-      <c r="I461" s="3"/>
+      <c r="B461" s="5"/>
+      <c r="C461" s="6"/>
     </row>
     <row r="462" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B462" s="6"/>
-      <c r="C462" s="8"/>
+      <c r="B462" s="5"/>
+      <c r="C462" s="6"/>
     </row>
     <row r="463" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B463" s="6"/>
-      <c r="C463" s="8"/>
+      <c r="B463" s="5"/>
+      <c r="C463" s="6"/>
     </row>
     <row r="464" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B464" s="6"/>
-      <c r="C464" s="8"/>
+      <c r="B464" s="5"/>
+      <c r="C464" s="6"/>
     </row>
     <row r="465" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B465" s="6"/>
-      <c r="C465" s="8"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="6"/>
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B466" s="6"/>
-      <c r="C466" s="8"/>
+      <c r="B466" s="5"/>
+      <c r="C466" s="6"/>
     </row>
     <row r="467" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B467" s="6"/>
-      <c r="C467" s="8"/>
+      <c r="B467" s="5"/>
+      <c r="C467" s="6"/>
     </row>
     <row r="468" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B468" s="6"/>
-      <c r="C468" s="8"/>
+      <c r="B468" s="5"/>
+      <c r="C468" s="6"/>
     </row>
     <row r="469" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B469" s="6"/>
-      <c r="C469" s="8"/>
+      <c r="B469" s="5"/>
+      <c r="C469" s="6"/>
     </row>
     <row r="470" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B470" s="6"/>
-      <c r="C470" s="8"/>
+      <c r="B470" s="5"/>
+      <c r="C470" s="6"/>
     </row>
     <row r="471" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B471" s="6"/>
-      <c r="C471" s="8"/>
+      <c r="B471" s="5"/>
+      <c r="C471" s="6"/>
     </row>
     <row r="472" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B472" s="6"/>
-      <c r="C472" s="8"/>
+      <c r="B472" s="5"/>
+      <c r="C472" s="6"/>
     </row>
     <row r="473" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B473" s="6"/>
-      <c r="C473" s="8"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="6"/>
     </row>
     <row r="474" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B474" s="6"/>
-      <c r="C474" s="8"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="6"/>
     </row>
     <row r="475" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B475" s="6"/>
-      <c r="C475" s="8"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="6"/>
     </row>
     <row r="476" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B476" s="6"/>
-      <c r="C476" s="8"/>
+      <c r="B476" s="5"/>
+      <c r="C476" s="6"/>
+      <c r="H476" s="3"/>
     </row>
     <row r="477" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B477" s="6"/>
-      <c r="C477" s="8"/>
+      <c r="B477" s="5"/>
+      <c r="C477" s="6"/>
       <c r="H477" s="3"/>
     </row>
     <row r="478" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B478" s="6"/>
-      <c r="C478" s="8"/>
+      <c r="B478" s="5"/>
+      <c r="C478" s="6"/>
       <c r="H478" s="3"/>
     </row>
     <row r="479" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B479" s="6"/>
-      <c r="C479" s="8"/>
+      <c r="B479" s="5"/>
+      <c r="C479" s="6"/>
       <c r="H479" s="3"/>
     </row>
     <row r="480" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B480" s="6"/>
-      <c r="C480" s="8"/>
+      <c r="B480" s="5"/>
+      <c r="C480" s="6"/>
       <c r="H480" s="3"/>
     </row>
     <row r="481" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B481" s="6"/>
-      <c r="C481" s="8"/>
+      <c r="B481" s="5"/>
+      <c r="C481" s="6"/>
       <c r="H481" s="3"/>
     </row>
     <row r="482" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B482" s="6"/>
-      <c r="C482" s="8"/>
+      <c r="B482" s="5"/>
+      <c r="C482" s="6"/>
       <c r="H482" s="3"/>
     </row>
     <row r="483" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B483" s="6"/>
-      <c r="C483" s="8"/>
-      <c r="H483" s="3"/>
+      <c r="B483" s="5"/>
+      <c r="C483" s="6"/>
     </row>
     <row r="484" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B484" s="6"/>
-      <c r="C484" s="8"/>
+      <c r="B484" s="5"/>
+      <c r="C484" s="6"/>
     </row>
     <row r="485" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B485" s="6"/>
-      <c r="C485" s="8"/>
+      <c r="B485" s="5"/>
+      <c r="C485" s="6"/>
     </row>
     <row r="486" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B486" s="6"/>
-      <c r="C486" s="8"/>
+      <c r="B486" s="5"/>
+      <c r="C486" s="6"/>
     </row>
     <row r="487" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B487" s="6"/>
-      <c r="C487" s="8"/>
+      <c r="B487" s="5"/>
+      <c r="C487" s="6"/>
     </row>
     <row r="488" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B488" s="6"/>
-      <c r="C488" s="8"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="6"/>
     </row>
     <row r="489" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B489" s="6"/>
-      <c r="C489" s="8"/>
+      <c r="B489" s="5"/>
+      <c r="C489" s="6"/>
     </row>
     <row r="490" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B490" s="6"/>
-      <c r="C490" s="8"/>
+      <c r="B490" s="5"/>
+      <c r="C490" s="6"/>
     </row>
     <row r="491" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B491" s="6"/>
-      <c r="C491" s="8"/>
+      <c r="B491" s="5"/>
+      <c r="C491" s="6"/>
     </row>
     <row r="492" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B492" s="6"/>
-      <c r="C492" s="8"/>
-    </row>
-    <row r="493" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C493" s="8"/>
-    </row>
-    <row r="494" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H494" s="11"/>
-      <c r="M494" s="12"/>
-    </row>
-    <row r="495" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H495" s="14"/>
-      <c r="M495" s="12"/>
-    </row>
-    <row r="496" spans="2:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C496" s="10"/>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C497" s="6"/>
+      <c r="C492" s="6"/>
+    </row>
+    <row r="493" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H493" s="9"/>
+      <c r="M493" s="10"/>
+    </row>
+    <row r="494" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H494" s="12"/>
+      <c r="M494" s="10"/>
+    </row>
+    <row r="495" spans="2:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C496" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M157">
-    <sortCondition ref="B1:B157"/>
-  </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6627,15 +6681,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017D384145B2B87469E8166EBC5A72360" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4823ed4c2e4f14b1c0d6c2c39bd034d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="94878cb0-4f6a-4028-8116-9ba0da8e57fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32da94025cecf02f0ecc5e348b32922b" ns3:_="">
     <xsd:import namespace="94878cb0-4f6a-4028-8116-9ba0da8e57fe"/>
@@ -6819,6 +6864,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6337D982-D9CF-4D07-953D-B708CB6DF118}">
   <ds:schemaRefs>
@@ -6829,14 +6883,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A754A4-8E78-4B6C-9809-C1672BAF8ECD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5BB162-5DDC-442D-B244-2A951BECAE14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6852,4 +6898,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A754A4-8E78-4B6C-9809-C1672BAF8ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>